--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxi/山东联通/Uplan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FAE1B1-A690-A944-836D-FF8BBECC4286}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714BF07-CBCF-C04C-9DD8-3233327FA57F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -138,7 +138,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求书包括项目背景、流程、产品结构、功能</t>
+    <t>后端开发</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户申请页面设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯宣祯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户个人申请结果页面设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据展示和撤回功能</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理页面设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理表页面设计完成，待完成添加车辆页面</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佳辉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理页面设计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理表，添加车辆页面页面设计完成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS编写</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雨佳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆记录模块实体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨鹏真</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理与车辆类型</t>
+  </si>
+  <si>
+    <t>基本的增删改查完成</t>
+  </si>
+  <si>
+    <t>时间戳代码获取有问题</t>
+  </si>
+  <si>
+    <t>张涛</t>
+  </si>
+  <si>
+    <t>用车申请</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经将基本的sevice controler model生成</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码结构需要注释，代码未进行测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张强</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆审批</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>注解语法不熟悉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查阅资料</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成角色管理模块接口设计与实现</t>
+  </si>
+  <si>
+    <t>权限管理模块—角色管理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助解决前后端开发问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成车辆记录模块实体建立</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姜栋煜、罗夕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建服务器，统一数据库，基础项目部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成角色管理模块页面设计与实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括项目背景、流程、产品结构、功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -175,6 +325,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -261,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,15 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -313,26 +468,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,21 +848,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I81"/>
+  <dimension ref="A2:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="1" customFormat="1">
@@ -633,13 +873,13 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -655,157 +895,157 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>33</v>
+      <c r="E3" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="16"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="16"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -814,420 +1054,532 @@
     <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+    <row r="14" spans="1:9" ht="32">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+    <row r="15" spans="1:9" ht="16">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+    <row r="18" spans="1:9" ht="16">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35" t="s">
+        <v>54</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+    <row r="19" spans="1:9" ht="16">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+    <row r="20" spans="1:9" ht="16">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="19"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>27</v>
+      </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+    <row r="22" spans="1:9">
+      <c r="A22" s="37"/>
+      <c r="B22" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="18"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="17.5" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+    <row r="27" spans="1:9">
+      <c r="A27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="12"/>
+    <row r="29" spans="1:9" ht="17.5" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="16"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="22" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
+    <row r="36" spans="1:9">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="16"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="13"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="22" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+    <row r="39" spans="1:9">
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="17"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="9"/>
+    <row r="41" spans="1:9" s="1" customFormat="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="18"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="14"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="18"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="14"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="18"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="9"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="14"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+    <row r="45" spans="1:9">
+      <c r="A45" s="22"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+    <row r="47" spans="1:9" s="1" customFormat="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -1236,9 +1588,9 @@
     <row r="49" spans="1:9">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -1247,9 +1599,9 @@
     <row r="50" spans="1:9">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -1258,9 +1610,9 @@
     <row r="51" spans="1:9">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -1269,9 +1621,9 @@
     <row r="52" spans="1:9">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -1280,9 +1632,9 @@
     <row r="53" spans="1:9">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -1291,9 +1643,9 @@
     <row r="54" spans="1:9">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -1302,9 +1654,9 @@
     <row r="55" spans="1:9">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -1313,9 +1665,9 @@
     <row r="56" spans="1:9">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -1324,9 +1676,9 @@
     <row r="57" spans="1:9">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
@@ -1335,9 +1687,9 @@
     <row r="58" spans="1:9">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -1346,9 +1698,9 @@
     <row r="59" spans="1:9">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -1357,9 +1709,9 @@
     <row r="60" spans="1:9">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -1368,9 +1720,9 @@
     <row r="61" spans="1:9">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -1379,9 +1731,9 @@
     <row r="62" spans="1:9">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -1390,9 +1742,9 @@
     <row r="63" spans="1:9">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -1401,9 +1753,9 @@
     <row r="64" spans="1:9">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -1412,9 +1764,9 @@
     <row r="65" spans="1:9">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -1423,9 +1775,9 @@
     <row r="66" spans="1:9">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
@@ -1434,9 +1786,9 @@
     <row r="67" spans="1:9">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
@@ -1445,9 +1797,9 @@
     <row r="68" spans="1:9">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -1456,9 +1808,9 @@
     <row r="69" spans="1:9">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
@@ -1467,9 +1819,9 @@
     <row r="70" spans="1:9">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
@@ -1478,9 +1830,9 @@
     <row r="71" spans="1:9">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
@@ -1489,9 +1841,9 @@
     <row r="72" spans="1:9">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -1500,9 +1852,9 @@
     <row r="73" spans="1:9">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
@@ -1511,9 +1863,9 @@
     <row r="74" spans="1:9">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
@@ -1522,9 +1874,9 @@
     <row r="75" spans="1:9">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
@@ -1533,9 +1885,9 @@
     <row r="76" spans="1:9">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -1544,9 +1896,9 @@
     <row r="77" spans="1:9">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
@@ -1555,9 +1907,9 @@
     <row r="78" spans="1:9">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
@@ -1566,9 +1918,9 @@
     <row r="79" spans="1:9">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
@@ -1577,9 +1929,9 @@
     <row r="80" spans="1:9">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -1588,31 +1940,53 @@
     <row r="81" spans="1:9">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
     </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A25:A32"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxi/山东联通/Uplan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6714BF07-CBCF-C04C-9DD8-3233327FA57F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4410C10C-B0A1-3947-9131-1DD2ACA795BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
   <si>
     <t>日期</t>
   </si>
@@ -289,6 +289,167 @@
   </si>
   <si>
     <t>包括项目背景、流程、产品结构、功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理页面，添加、修改、删除车辆页面完成。待修改service与后台联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加页面修改页面数据设计及获取，部分service层coding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张雨佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户申请页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面展示，以及基本操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯宣祯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据展示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入echarts，完成基础图表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆记录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成加油记录页面展示及操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用车申请功能模块（official_car_apply表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成official_car_apply表的service、dao、model，部分controller功能已实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis中多表级联查询与更新方法的写法不熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上学习下这块的写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常运维功能模块（daily_operation表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成daily_operation表的service、dao、model,正在写controller功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller还不熟悉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨鹏真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理与车辆类型模块</t>
+  </si>
+  <si>
+    <t>基本完成增删改查功能，测试bug</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>用车审批模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正审核功能并完成相应代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳传入数据库不是想要的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查阅资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理模块——用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成角色管理模块接口设计与实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中文显示乱码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要修改字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计分析模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明确数据库字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助解决前后端遇到的问题，git使用问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,16 +466,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -425,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,134 +608,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,18 +1042,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I83"/>
+  <dimension ref="A2:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26" style="33" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="26" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="19" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
@@ -873,13 +1067,13 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -896,156 +1090,156 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="33" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="20"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="20"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1054,256 +1248,256 @@
     <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="29">
         <v>0.5</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="32">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="29">
         <v>0.5</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="29">
         <v>0.6</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35" t="s">
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="29">
         <v>0.8</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="29">
         <v>0.5</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41" t="s">
+      <c r="F19" s="30"/>
+      <c r="G19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="27" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="16">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="35" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="29">
         <v>0.8</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="27" t="s">
         <v>62</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35" t="s">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="37"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35" t="s">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
         <v>68</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="35" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="5"/>
@@ -1311,682 +1505,863 @@
     <row r="24" spans="1:9" s="1" customFormat="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:9" ht="32">
+      <c r="A25" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="50" t="s">
+        <v>75</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="22"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="5"/>
+    <row r="26" spans="1:9" ht="32">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="17.5" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="24"/>
+    <row r="29" spans="1:9">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>87</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="H29" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="52" t="s">
+        <v>24</v>
+      </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+    <row r="31" spans="1:9" ht="16">
+      <c r="A31" s="43"/>
+      <c r="B31" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="49">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>94</v>
+      </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+    <row r="32" spans="1:9" ht="32">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50" t="s">
+        <v>98</v>
+      </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+    <row r="33" spans="1:9" ht="16">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="55">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="16">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="49">
+        <v>0.85</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="56">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="47"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>112</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+    <row r="37" spans="1:9" ht="17.5" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="27" t="s">
+        <v>68</v>
+      </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="22" customHeight="1">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+    <row r="38" spans="1:9" s="1" customFormat="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1">
+      <c r="A39" s="38"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="20"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" s="1" customFormat="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="39"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="21"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="22"/>
-      <c r="B43" s="17"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="22" customHeight="1">
+      <c r="A43" s="39"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="22"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="9"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="22"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="22"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="24"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="16"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="47"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="A51" s="43"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="16"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="A25:A37"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B32"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxi/山东联通/Uplan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4410C10C-B0A1-3947-9131-1DD2ACA795BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBA164E-56B5-5C4B-8311-2955BE6E8B2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
   <si>
     <t>日期</t>
   </si>
@@ -450,6 +450,96 @@
   </si>
   <si>
     <t>协助解决前后端遇到的问题，git使用问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除、添加联调通过，编辑待联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service层的编写，与后台连接测试功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户申请页面设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面展示，以及基本操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯宣祯</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核页面设计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据展示功能以及基本操作</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理页面优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成daily_operation表的service、dao、model、controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用车申请功能模块（official_car_apply表），与前端对接接口规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口边界测试，接口部分修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范类名、方法名的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapper类中Update注解对应的方法传递多个参数时不识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先传入实体对象绕过问题，明天问老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理与车辆类型模块前后端对接</t>
+  </si>
+  <si>
+    <t>车型管理前后端连通完成，车辆管理前后端未调通</t>
+  </si>
+  <si>
+    <t>完成公车申请相关的统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化页面样式及功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器部署维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +547,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -507,6 +597,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -584,21 +694,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,12 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -623,86 +727,104 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,54 +844,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1042,18 +1144,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I88"/>
+  <dimension ref="A2:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="26" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="13" customWidth="1"/>
     <col min="6" max="6" width="20.83203125" customWidth="1"/>
     <col min="7" max="7" width="34.33203125" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" customWidth="1"/>
@@ -1061,1297 +1163,1482 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="1" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="39"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="13" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="39"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="20">
         <v>0.5</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="40"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="32">
-      <c r="A14" s="40"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="20">
         <v>0.5</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="40"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="27" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="20">
         <v>0.6</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="40"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27" t="s">
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="40"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="20">
         <v>0.8</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="20">
         <v>0.5</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="16">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="27" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="20">
         <v>0.8</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="32" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="40"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="27" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="32">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="28">
         <v>0.8</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="32">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="28">
         <v>0.8</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="28">
         <v>0.9</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="28">
         <v>0.4</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="28">
         <v>0.5</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="51" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="28">
         <v>0.5</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="52" t="s">
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="43"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="28">
         <v>0.75</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="32">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="50" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="32">
         <v>0.75</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="16">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="54" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="34">
         <v>0.9</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="28">
         <v>0.85</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="51" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="35">
         <v>0.8</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="51" t="s">
+      <c r="H35" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="49">
+      <c r="D36" s="28">
         <v>0.1</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="51" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="17.5" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="58" t="s">
+      <c r="A37" s="46"/>
+      <c r="B37" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="27" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="5"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="38"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="39"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="16">
+      <c r="A39" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="16">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="39"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="39"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="22" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="39"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="39"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" s="1" customFormat="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="47"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="43"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="8"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="46"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" customHeight="1">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="16" customHeight="1">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="52" customFormat="1" ht="16" customHeight="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" s="52" customFormat="1" ht="16" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="35">
+        <v>1</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="8"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="43"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="8"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="43"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="8"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" s="1" customFormat="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
+  <mergeCells count="16">
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A23"/>
     <mergeCell ref="A25:A37"/>
@@ -2364,8 +2651,11 @@
     <mergeCell ref="B31:B36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F46" r:id="rId1" display="Mapper类中的@Update注解对应的方法传递多个传递多个不识别" xr:uid="{76B099BD-9604-3C48-BE4B-A842F72D83F9}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxi/山东联通/Uplan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBA164E-56B5-5C4B-8311-2955BE6E8B2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF8FD5-DFBE-9B4B-B960-28E6EAB34715}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
   <si>
     <t>日期</t>
   </si>
@@ -540,6 +540,99 @@
   </si>
   <si>
     <t>项目部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理页面设计</t>
+  </si>
+  <si>
+    <t>基本与后台联通，车型缺少下拉框</t>
+  </si>
+  <si>
+    <t>吴佳辉</t>
+  </si>
+  <si>
+    <t>张雨佳</t>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目展示PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员审核页面前后端联调</t>
+  </si>
+  <si>
+    <t>用户申请页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户申请页面前后端联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理模块—用户管理 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面及前后端联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成三个统计数据的展示+联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理前后端连通完成，车辆管理前后端基本调通</t>
+  </si>
+  <si>
+    <t>前端缺少下拉菜单</t>
+  </si>
+  <si>
+    <t>1.用车审批模块开发2.与前端联合调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成，调式完成，需要更改传给前端的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用车申请功能模块（official_car_apply表）基本完成，还有一个小部分的接口与date时间参数的问题需要更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与前端联调出现了访问不通问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">google baidu </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成daily_operation表的service、dao、model、controller功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成按照时间统计公车预约情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,6 +694,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -702,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,59 +908,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1144,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I94"/>
+  <dimension ref="A2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1192,7 +1289,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1201,7 +1298,7 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -1215,14 +1312,14 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="42"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1236,14 +1333,14 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -1257,12 +1354,12 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -1276,14 +1373,14 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="42"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -1297,12 +1394,12 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1316,12 +1413,12 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -1335,12 +1432,12 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="42"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1359,10 +1456,10 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -1382,12 +1479,12 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="43"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -1401,8 +1498,8 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="32">
-      <c r="A14" s="43"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="19" t="s">
         <v>42</v>
       </c>
@@ -1420,8 +1517,8 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="43"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="19" t="s">
         <v>45</v>
       </c>
@@ -1441,12 +1538,12 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="43"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="25" t="s">
@@ -1460,8 +1557,8 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="43"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1481,8 +1578,8 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="19" t="s">
         <v>51</v>
       </c>
@@ -1502,8 +1599,8 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="19" t="s">
         <v>55</v>
       </c>
@@ -1523,8 +1620,8 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="16">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="19" t="s">
         <v>59</v>
       </c>
@@ -1546,12 +1643,12 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="38" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -1565,14 +1662,14 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="43"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="54" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="38" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -1586,12 +1683,12 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="25" t="s">
@@ -1616,10 +1713,10 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="32">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1639,8 +1736,8 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="32">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
@@ -1660,8 +1757,8 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="4" t="s">
         <v>81</v>
       </c>
@@ -1679,8 +1776,8 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
@@ -1698,8 +1795,8 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="30" t="s">
         <v>86</v>
       </c>
@@ -1717,8 +1814,8 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="46"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="30" t="s">
         <v>88</v>
       </c>
@@ -1736,8 +1833,8 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="46"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="46" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1761,8 +1858,8 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="32">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
@@ -1782,8 +1879,8 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="16">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="33" t="s">
         <v>99</v>
       </c>
@@ -1803,8 +1900,8 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="4" t="s">
         <v>102</v>
       </c>
@@ -1826,8 +1923,8 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="30" t="s">
         <v>107</v>
       </c>
@@ -1849,8 +1946,8 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="46"/>
-      <c r="B36" s="50"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="30" t="s">
         <v>111</v>
       </c>
@@ -1868,14 +1965,14 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="17.5" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="39" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="5"/>
@@ -1898,10 +1995,10 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="16">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -1921,8 +2018,8 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="16">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="4" t="s">
         <v>77</v>
       </c>
@@ -1940,8 +2037,8 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="4" t="s">
         <v>118</v>
       </c>
@@ -1959,8 +2056,8 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="4" t="s">
         <v>122</v>
       </c>
@@ -1978,12 +2075,12 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="46"/>
-      <c r="B43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="27" t="s">
@@ -1997,8 +2094,8 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="16" customHeight="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="51" t="s">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2018,8 +2115,8 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="16" customHeight="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="5" t="s">
         <v>126</v>
       </c>
@@ -2039,8 +2136,8 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="16" customHeight="1">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="4" t="s">
         <v>102</v>
       </c>
@@ -2050,7 +2147,7 @@
       <c r="E46" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="42" t="s">
         <v>129</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -2061,30 +2158,30 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" s="52" customFormat="1" ht="16" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="54" t="s">
+    <row r="47" spans="1:9" s="41" customFormat="1" ht="16" customHeight="1">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="43" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="35">
         <v>0.5</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="54" t="s">
+      <c r="F47" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54" t="s">
+      <c r="G47" s="43"/>
+      <c r="H47" s="43" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" s="52" customFormat="1" ht="16" customHeight="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
+    <row r="48" spans="1:9" s="41" customFormat="1" ht="16" customHeight="1">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
       <c r="C48" s="30" t="s">
         <v>107</v>
       </c>
@@ -2102,8 +2199,8 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="46"/>
-      <c r="B49" s="50"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="30" t="s">
         <v>111</v>
       </c>
@@ -2121,8 +2218,8 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="46"/>
-      <c r="B50" s="49" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -2142,12 +2239,12 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="46"/>
-      <c r="B51" s="50"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="5"/>
@@ -2169,154 +2266,266 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="51"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="7"/>
+    <row r="53" spans="1:9" ht="16">
+      <c r="A53" s="48"/>
+      <c r="B53" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="46"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="7"/>
+    <row r="54" spans="1:9" ht="16">
+      <c r="A54" s="47"/>
+      <c r="B54" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30" t="s">
+        <v>139</v>
+      </c>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="46"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="7"/>
+    <row r="55" spans="1:9" ht="16">
+      <c r="A55" s="47"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="46"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="7"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="46"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="7"/>
+    <row r="57" spans="1:9" ht="16">
+      <c r="A57" s="47"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+    <row r="58" spans="1:9" ht="16">
+      <c r="A58" s="47"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D58" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="32">
+      <c r="A59" s="47"/>
+      <c r="B59" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
+    <row r="60" spans="1:9" ht="32">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
+    <row r="61" spans="1:9" ht="32">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
+    <row r="62" spans="1:9" ht="80">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="E62" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="11"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+    <row r="65" spans="1:9" s="1" customFormat="1">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="38"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="11"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -2327,7 +2536,7 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="38"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="11"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -2338,7 +2547,7 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="38"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="11"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -2349,7 +2558,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="38"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="11"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -2360,7 +2569,7 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="38"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="11"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -2371,7 +2580,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="38"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="11"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -2382,7 +2591,7 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="38"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="11"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -2393,7 +2602,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="38"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="11"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -2404,7 +2613,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="38"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="11"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -2415,7 +2624,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="38"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="11"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -2426,7 +2635,7 @@
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="38"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="11"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -2437,7 +2646,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="38"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="11"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -2448,7 +2657,7 @@
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="38"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="11"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -2459,7 +2668,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="38"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="11"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -2470,7 +2679,7 @@
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="38"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="11"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -2481,7 +2690,7 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="38"/>
+      <c r="D81" s="37"/>
       <c r="E81" s="11"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -2492,7 +2701,7 @@
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="38"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="11"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2503,7 +2712,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="38"/>
+      <c r="D83" s="37"/>
       <c r="E83" s="11"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2514,7 +2723,7 @@
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="38"/>
+      <c r="D84" s="37"/>
       <c r="E84" s="11"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2525,7 +2734,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="38"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="11"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2536,7 +2745,7 @@
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="38"/>
+      <c r="D86" s="37"/>
       <c r="E86" s="11"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -2547,7 +2756,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="38"/>
+      <c r="D87" s="37"/>
       <c r="E87" s="11"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -2558,7 +2767,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="38"/>
+      <c r="D88" s="37"/>
       <c r="E88" s="11"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2569,7 +2778,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="38"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="11"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -2580,7 +2789,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="38"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="11"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2591,7 +2800,7 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="38"/>
+      <c r="D91" s="37"/>
       <c r="E91" s="11"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -2602,7 +2811,7 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="38"/>
+      <c r="D92" s="37"/>
       <c r="E92" s="11"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -2613,7 +2822,7 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="38"/>
+      <c r="D93" s="37"/>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -2624,21 +2833,92 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="38"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="11"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B50:B51"/>
+  <mergeCells count="17">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A23"/>
     <mergeCell ref="A25:A37"/>
@@ -2649,6 +2929,13 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B59:B63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luoxi/山东联通/Uplan/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AF8FD5-DFBE-9B4B-B960-28E6EAB34715}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B822C65-20FE-5449-AEE1-8A506552E3AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="191">
   <si>
     <t>日期</t>
   </si>
@@ -634,13 +634,120 @@
   <si>
     <t>完成按照时间统计公车预约情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责模块已完成，协调车辆管理模块的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现页面开发，前后端调通，代码已提交</t>
+  </si>
+  <si>
+    <t>PPT完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗夕、姜栋煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户申请用车，管理员审核流程联调</t>
+  </si>
+  <si>
+    <t>管理员审核联调完毕，用户申请用车联调完成90%。</t>
+  </si>
+  <si>
+    <t>前端异步请求问题</t>
+  </si>
+  <si>
+    <t>冯宣祯</t>
+  </si>
+  <si>
+    <t>完成统计数据的展示+联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆管理优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化代码格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成页面及联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗夕、赵殷豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成车辆记录统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复修改用户bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆记录模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆记录列表拆分三个子列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型管理前后端连通完成，车辆管理前后端连通完成，代码提交完成</t>
+  </si>
+  <si>
+    <t>车辆审批模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆审批模块后端功能实现。与车辆审批模块前端对接完成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用车申请功能模块（official_car_apply表）完成并完成第一次测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调前后端的数据格式问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成项目简介</t>
+  </si>
+  <si>
+    <t>完成项目简介，并收集整理组员参加项目的心得感受</t>
+  </si>
+  <si>
+    <t>杨鹏真</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -709,6 +816,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -796,7 +909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,61 +1021,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1241,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I101"/>
+  <dimension ref="A2:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -1298,7 +1426,7 @@
       <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -1319,7 +1447,7 @@
       <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1340,7 +1468,7 @@
       <c r="C5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="12" t="s">
@@ -1359,7 +1487,7 @@
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -1380,7 +1508,7 @@
       <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -1399,7 +1527,7 @@
       <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1418,7 +1546,7 @@
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="42" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -1437,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1459,7 +1587,7 @@
       <c r="A12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -1480,11 +1608,11 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -1499,7 +1627,7 @@
     </row>
     <row r="14" spans="1:9" ht="32">
       <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="19" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1646,7 @@
     </row>
     <row r="15" spans="1:9" ht="16">
       <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="19" t="s">
         <v>45</v>
       </c>
@@ -1539,11 +1667,11 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="25" t="s">
@@ -1558,7 +1686,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="51"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1648,7 +1776,7 @@
       <c r="C21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -1663,13 +1791,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="51"/>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -1688,7 +1816,7 @@
       <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="25" t="s">
@@ -1713,10 +1841,10 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="32">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1736,8 +1864,8 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="32">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="4" t="s">
         <v>77</v>
       </c>
@@ -1757,8 +1885,8 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="4" t="s">
         <v>81</v>
       </c>
@@ -1776,8 +1904,8 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="4" t="s">
         <v>84</v>
       </c>
@@ -1795,8 +1923,8 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="30" t="s">
         <v>86</v>
       </c>
@@ -1814,8 +1942,8 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="47"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="30" t="s">
         <v>88</v>
       </c>
@@ -1833,8 +1961,8 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="47"/>
-      <c r="B31" s="46" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1858,8 +1986,8 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="32">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="29" t="s">
         <v>95</v>
       </c>
@@ -1879,8 +2007,8 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="16">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="33" t="s">
         <v>99</v>
       </c>
@@ -1900,8 +2028,8 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="4" t="s">
         <v>102</v>
       </c>
@@ -1923,8 +2051,8 @@
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="30" t="s">
         <v>107</v>
       </c>
@@ -1946,8 +2074,8 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="47"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="30" t="s">
         <v>111</v>
       </c>
@@ -1965,14 +2093,14 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="17.5" customHeight="1">
-      <c r="A37" s="47"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="36" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="5"/>
@@ -1995,10 +2123,10 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="16">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2018,8 +2146,8 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="16">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="4" t="s">
         <v>77</v>
       </c>
@@ -2037,8 +2165,8 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="4" t="s">
         <v>118</v>
       </c>
@@ -2056,8 +2184,8 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="4" t="s">
         <v>122</v>
       </c>
@@ -2075,12 +2203,12 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="47"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="27" t="s">
@@ -2094,8 +2222,8 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="16" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2115,8 +2243,8 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9" ht="16" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="5" t="s">
         <v>126</v>
       </c>
@@ -2136,8 +2264,8 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9" ht="16" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="4" t="s">
         <v>102</v>
       </c>
@@ -2147,7 +2275,7 @@
       <c r="E46" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="40" t="s">
         <v>129</v>
       </c>
       <c r="G46" s="5" t="s">
@@ -2158,30 +2286,30 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" s="41" customFormat="1" ht="16" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="43" t="s">
+    <row r="47" spans="1:9" s="39" customFormat="1" ht="16" customHeight="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="41" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="35">
         <v>0.5</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43" t="s">
+      <c r="G47" s="41"/>
+      <c r="H47" s="41" t="s">
         <v>54</v>
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" s="41" customFormat="1" ht="16" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+    <row r="48" spans="1:9" s="39" customFormat="1" ht="16" customHeight="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="30" t="s">
         <v>107</v>
       </c>
@@ -2199,8 +2327,8 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="47"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="30" t="s">
         <v>111</v>
       </c>
@@ -2218,8 +2346,8 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="47"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="46"/>
+      <c r="B50" s="44" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -2239,12 +2367,12 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="47"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E51" s="5"/>
@@ -2267,8 +2395,10 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="16">
-      <c r="A53" s="48"/>
-      <c r="B53" s="39" t="s">
+      <c r="A53" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="37" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="30" t="s">
@@ -2288,8 +2418,8 @@
       <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="16">
-      <c r="A54" s="47"/>
-      <c r="B54" s="46" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="44" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="30" t="s">
@@ -2309,8 +2439,8 @@
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="16">
-      <c r="A55" s="47"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="30" t="s">
         <v>144</v>
       </c>
@@ -2328,8 +2458,8 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="47"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="30" t="s">
         <v>146</v>
       </c>
@@ -2347,8 +2477,8 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="16">
-      <c r="A57" s="47"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="23" t="s">
         <v>148</v>
       </c>
@@ -2366,8 +2496,8 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16">
-      <c r="A58" s="47"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="30" t="s">
         <v>150</v>
       </c>
@@ -2385,8 +2515,8 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="32">
-      <c r="A59" s="47"/>
-      <c r="B59" s="46" t="s">
+      <c r="A59" s="46"/>
+      <c r="B59" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="29" t="s">
@@ -2408,8 +2538,8 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="32">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="4" t="s">
         <v>154</v>
       </c>
@@ -2431,8 +2561,8 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="32">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="4" t="s">
         <v>95</v>
       </c>
@@ -2450,8 +2580,8 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="80">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="29" t="s">
         <v>157</v>
       </c>
@@ -2473,8 +2603,8 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="47"/>
-      <c r="B63" s="45"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="30" t="s">
         <v>111</v>
       </c>
@@ -2492,14 +2622,14 @@
       <c r="I63" s="5"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="47"/>
-      <c r="B64" s="40" t="s">
+      <c r="A64" s="46"/>
+      <c r="B64" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E64" s="5"/>
@@ -2521,187 +2651,326 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+    <row r="66" spans="1:9" ht="16">
+      <c r="A66" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="28">
+        <v>0.95</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="30" t="s">
+        <v>167</v>
+      </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+    <row r="67" spans="1:9" ht="16">
+      <c r="A67" s="46"/>
+      <c r="B67" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+    <row r="68" spans="1:9" ht="16">
+      <c r="A68" s="46"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30" t="s">
+        <v>139</v>
+      </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+    <row r="69" spans="1:9" ht="32">
+      <c r="A69" s="46"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29" t="s">
+        <v>171</v>
+      </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+    <row r="70" spans="1:9" ht="16">
+      <c r="A70" s="46"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="33" t="s">
+        <v>177</v>
+      </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+    <row r="71" spans="1:9" ht="16">
+      <c r="A71" s="46"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+    <row r="72" spans="1:9" ht="16">
+      <c r="A72" s="46"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+    <row r="76" spans="1:9" ht="32">
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+    <row r="77" spans="1:9" ht="48">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="32">
+        <v>0.95</v>
+      </c>
+      <c r="E77" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+    <row r="78" spans="1:9" ht="32">
+      <c r="A78" s="46"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33" t="s">
+        <v>106</v>
+      </c>
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="G79" s="33"/>
+      <c r="H79" s="56" t="s">
+        <v>190</v>
+      </c>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="11"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="H81" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="37"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="11"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -2712,7 +2981,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="37"/>
+      <c r="D83" s="42"/>
       <c r="E83" s="11"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -2723,7 +2992,7 @@
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="37"/>
+      <c r="D84" s="42"/>
       <c r="E84" s="11"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
@@ -2734,7 +3003,7 @@
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="37"/>
+      <c r="D85" s="42"/>
       <c r="E85" s="11"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -2745,7 +3014,7 @@
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="37"/>
+      <c r="D86" s="42"/>
       <c r="E86" s="11"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
@@ -2756,7 +3025,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="37"/>
+      <c r="D87" s="42"/>
       <c r="E87" s="11"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -2767,7 +3036,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="37"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="11"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2778,7 +3047,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="37"/>
+      <c r="D89" s="42"/>
       <c r="E89" s="11"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -2789,7 +3058,7 @@
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="37"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="11"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -2800,7 +3069,7 @@
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="37"/>
+      <c r="D91" s="42"/>
       <c r="E91" s="11"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -2811,7 +3080,7 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="37"/>
+      <c r="D92" s="42"/>
       <c r="E92" s="11"/>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -2822,7 +3091,7 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="37"/>
+      <c r="D93" s="42"/>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -2833,7 +3102,7 @@
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="37"/>
+      <c r="D94" s="42"/>
       <c r="E94" s="11"/>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
@@ -2844,7 +3113,7 @@
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="37"/>
+      <c r="D95" s="42"/>
       <c r="E95" s="11"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
@@ -2855,7 +3124,7 @@
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="37"/>
+      <c r="D96" s="42"/>
       <c r="E96" s="11"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -2866,7 +3135,7 @@
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="37"/>
+      <c r="D97" s="42"/>
       <c r="E97" s="11"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
@@ -2877,7 +3146,7 @@
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="37"/>
+      <c r="D98" s="42"/>
       <c r="E98" s="11"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
@@ -2888,7 +3157,7 @@
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="37"/>
+      <c r="D99" s="42"/>
       <c r="E99" s="11"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
@@ -2899,7 +3168,7 @@
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="7"/>
-      <c r="D100" s="37"/>
+      <c r="D100" s="42"/>
       <c r="E100" s="11"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
@@ -2910,15 +3179,63 @@
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="7"/>
-      <c r="D101" s="37"/>
+      <c r="D101" s="42"/>
       <c r="E101" s="11"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:B78"/>
+    <mergeCell ref="B79:B81"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A12:A23"/>
     <mergeCell ref="A25:A37"/>
